--- a/management/TaskAssignments_CURRENT.xlsx
+++ b/management/TaskAssignments_CURRENT.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sceot\uoregon-cis422-p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6C05B4A-2150-45E7-B181-C2F806A5A566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F62BAA1-9A38-495D-AEA8-066D571B99A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1380" windowWidth="16275" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13965" yWindow="1710" windowWidth="16275" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Date Due</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Establish weekly meeting schedule. Post on shared repository.</t>
-  </si>
-  <si>
-    <t>Have initial meeting with client to review v1 of SRS.</t>
   </si>
   <si>
     <t>Generate v1 of SDS. Post on shared repository.</t>
@@ -319,7 +316,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -387,9 +384,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -814,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -838,7 +832,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="16"/>
       <c r="E1" s="14"/>
@@ -854,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2"/>
@@ -869,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3"/>
@@ -899,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5"/>
@@ -912,7 +906,7 @@
     <row r="6" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="34"/>
       <c r="E6" s="36"/>
@@ -926,28 +920,28 @@
     <row r="7" spans="1:13" s="25" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="H7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="I7" s="27" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>36</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
@@ -955,13 +949,13 @@
     </row>
     <row r="8" spans="1:13" s="22" customFormat="1" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="31"/>
       <c r="G8" s="32"/>
@@ -999,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>0</v>
@@ -1011,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>6</v>
@@ -1020,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1030,13 +1024,13 @@
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="19">
         <v>43840</v>
@@ -1052,13 +1046,13 @@
     <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="19">
         <v>43843</v>
@@ -1073,24 +1067,24 @@
         <v>43843</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="17">
         <v>0</v>
       </c>
       <c r="M13" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="19">
         <v>43840</v>
@@ -1105,37 +1099,29 @@
         <v>16</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1148,10 +1134,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid name" error="The name entered is invalid. Try selecting from the dropdown menu or check the &quot;Names to select from&quot; row!" sqref="C5 K15:K1048576 K11:K14 I15:I1048576 I11:I14 D15:D1048576 D11:D14" xr:uid="{C7DF3608-9B75-4DDF-A1DD-662287A06404}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid name" error="The name entered is invalid. Try selecting from the dropdown menu or check the &quot;Names to select from&quot; row!" sqref="C5 D11:D1048576 I11:I1048576 K11:K1048576" xr:uid="{C7DF3608-9B75-4DDF-A1DD-662287A06404}">
       <formula1>$C$7:$I$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid status" error="The status that was entered is invalid. Check the &quot;Statuses to choose from&quot; row or try using the dropdown menu!" sqref="C15:C1048576 C11:C14" xr:uid="{64313EE1-B3F7-42FC-95EA-B301B9DE1219}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid status" error="The status that was entered is invalid. Check the &quot;Statuses to choose from&quot; row or try using the dropdown menu!" sqref="C11:C1048576" xr:uid="{64313EE1-B3F7-42FC-95EA-B301B9DE1219}">
       <formula1>$C$8:$D$8</formula1>
     </dataValidation>
   </dataValidations>
